--- a/测试单-电子书_txt-word_161210.xlsx
+++ b/测试单-电子书_txt-word_161210.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="725">
   <si>
     <t>编号</t>
   </si>
@@ -5161,6 +5161,10 @@
   </si>
   <si>
     <t>“存储卡不存在，请插入”提示消掉后，不能自动播报标题栏及反显项。【11月21日版】存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8458,13 +8462,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P282"/>
+  <dimension ref="A1:P281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H268" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F248" sqref="F248:G278"/>
+      <selection pane="bottomRight" activeCell="N282" sqref="N282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18581,7 +18585,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="249" spans="1:16" s="361" customFormat="1" ht="40.5" hidden="1">
+    <row r="249" spans="1:16" s="361" customFormat="1" ht="40.5">
       <c r="A249" s="356">
         <v>247</v>
       </c>
@@ -18653,7 +18657,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="251" spans="1:16" s="361" customFormat="1" ht="67.5" hidden="1">
+    <row r="251" spans="1:16" s="361" customFormat="1" ht="67.5">
       <c r="A251" s="356">
         <v>249</v>
       </c>
@@ -19108,7 +19112,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="262" spans="1:16" s="361" customFormat="1" ht="40.5" hidden="1">
+    <row r="262" spans="1:16" s="361" customFormat="1" ht="40.5">
       <c r="A262" s="356">
         <v>260</v>
       </c>
@@ -19221,7 +19225,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="265" spans="1:16" s="303" customFormat="1" ht="67.5" hidden="1">
+    <row r="265" spans="1:16" s="303" customFormat="1" ht="67.5">
       <c r="A265" s="356">
         <v>263</v>
       </c>
@@ -19352,7 +19356,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="269" spans="1:16" s="380" customFormat="1" ht="40.5" hidden="1">
+    <row r="269" spans="1:16" s="380" customFormat="1" ht="40.5">
       <c r="A269" s="356">
         <v>267</v>
       </c>
@@ -19524,7 +19528,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="274" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+    <row r="274" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A274" s="356">
         <v>272</v>
       </c>
@@ -19550,7 +19554,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="275" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+    <row r="275" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A275" s="356">
         <v>273</v>
       </c>
@@ -19626,7 +19630,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="277" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+    <row r="277" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A277" s="356">
         <v>275</v>
       </c>
@@ -19693,9 +19697,41 @@
         <v>699</v>
       </c>
     </row>
+    <row r="279" spans="1:16" s="380" customFormat="1" ht="27">
+      <c r="A279" s="356">
+        <v>277</v>
+      </c>
+      <c r="B279" s="387" t="s">
+        <v>18</v>
+      </c>
+      <c r="C279" s="387" t="s">
+        <v>720</v>
+      </c>
+      <c r="D279" s="402">
+        <v>42713</v>
+      </c>
+      <c r="E279" s="373">
+        <v>42714</v>
+      </c>
+      <c r="F279" s="380" t="s">
+        <v>717</v>
+      </c>
+      <c r="G279" s="345" t="s">
+        <v>721</v>
+      </c>
+      <c r="H279" s="380" t="s">
+        <v>106</v>
+      </c>
+      <c r="O279" s="420">
+        <v>42715</v>
+      </c>
+      <c r="P279" s="380" t="s">
+        <v>699</v>
+      </c>
+    </row>
     <row r="280" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A280" s="356">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B280" s="387" t="s">
         <v>18</v>
@@ -19710,27 +19746,24 @@
         <v>42714</v>
       </c>
       <c r="F280" s="380" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G280" s="345" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H280" s="380" t="s">
         <v>106</v>
       </c>
-      <c r="N280" s="380" t="s">
-        <v>711</v>
-      </c>
       <c r="O280" s="420">
-        <v>42710</v>
+        <v>42715</v>
       </c>
       <c r="P280" s="380" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="281" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A281" s="356">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B281" s="387" t="s">
         <v>18</v>
@@ -19745,57 +19778,22 @@
         <v>42714</v>
       </c>
       <c r="F281" s="380" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G281" s="345" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H281" s="380" t="s">
         <v>106</v>
       </c>
-      <c r="N281" s="380" t="s">
-        <v>711</v>
+      <c r="L281" s="380" t="s">
+        <v>724</v>
       </c>
       <c r="O281" s="420">
-        <v>42710</v>
+        <v>42715</v>
       </c>
       <c r="P281" s="380" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="282" spans="1:16" s="380" customFormat="1" ht="27">
-      <c r="A282" s="356">
-        <v>279</v>
-      </c>
-      <c r="B282" s="387" t="s">
-        <v>18</v>
-      </c>
-      <c r="C282" s="387" t="s">
-        <v>720</v>
-      </c>
-      <c r="D282" s="402">
-        <v>42713</v>
-      </c>
-      <c r="E282" s="373">
-        <v>42714</v>
-      </c>
-      <c r="F282" s="380" t="s">
-        <v>718</v>
-      </c>
-      <c r="G282" s="345" t="s">
-        <v>723</v>
-      </c>
-      <c r="H282" s="380" t="s">
-        <v>106</v>
-      </c>
-      <c r="N282" s="380" t="s">
-        <v>711</v>
-      </c>
-      <c r="O282" s="420">
-        <v>42710</v>
-      </c>
-      <c r="P282" s="380" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -19803,11 +19801,7 @@
     <filterColumn colId="8">
       <filters blank="1"/>
     </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="是"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="11"/>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/测试单-电子书_txt-word_161210.xlsx
+++ b/测试单-电子书_txt-word_161210.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$Y$278</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$Y$281</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="730">
   <si>
     <t>编号</t>
   </si>
@@ -5161,6 +5161,25 @@
   </si>
   <si>
     <t>“存储卡不存在，请插入”提示消掉后，不能自动播报标题栏及反显项。【11月21日版】存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要后鼎修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先观察一下有没有复现的规律。</t>
+  </si>
+  <si>
+    <t>先观察一下有没有复现的规律。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -8465,10 +8484,10 @@
   <dimension ref="A1:P281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H268" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N282" sqref="N282"/>
+      <selection pane="bottomRight" activeCell="N251" sqref="N251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8487,7 +8506,7 @@
     <col min="12" max="12" width="5.125" style="210" customWidth="1"/>
     <col min="13" max="13" width="9" style="210"/>
     <col min="14" max="14" width="35.75" style="210" customWidth="1"/>
-    <col min="15" max="15" width="9.25" style="210" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="210" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="210"/>
   </cols>
   <sheetData>
@@ -18548,7 +18567,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="40.5">
+    <row r="248" spans="1:16" ht="40.5" hidden="1">
       <c r="A248" s="356">
         <v>246</v>
       </c>
@@ -18573,7 +18592,7 @@
       <c r="H248" s="309" t="s">
         <v>269</v>
       </c>
-      <c r="L248" s="379" t="s">
+      <c r="L248" s="96" t="s">
         <v>714</v>
       </c>
       <c r="M248" s="379"/>
@@ -18657,7 +18676,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="251" spans="1:16" s="361" customFormat="1" ht="67.5">
+    <row r="251" spans="1:16" s="361" customFormat="1" ht="67.5" hidden="1">
       <c r="A251" s="356">
         <v>249</v>
       </c>
@@ -18682,15 +18701,19 @@
       <c r="H251" s="309" t="s">
         <v>269</v>
       </c>
-      <c r="L251" s="430"/>
+      <c r="L251" s="430" t="s">
+        <v>725</v>
+      </c>
       <c r="M251" s="430"/>
-      <c r="N251" s="430"/>
+      <c r="N251" s="430" t="s">
+        <v>728</v>
+      </c>
       <c r="O251" s="430"/>
       <c r="P251" s="430" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="252" spans="1:16" s="361" customFormat="1" ht="108">
+    <row r="252" spans="1:16" s="361" customFormat="1" ht="108" hidden="1">
       <c r="A252" s="356">
         <v>250</v>
       </c>
@@ -18859,7 +18882,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="361" customFormat="1" ht="54">
+    <row r="256" spans="1:16" s="361" customFormat="1" ht="54" hidden="1">
       <c r="A256" s="356">
         <v>254</v>
       </c>
@@ -19112,7 +19135,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="262" spans="1:16" s="361" customFormat="1" ht="40.5">
+    <row r="262" spans="1:16" s="361" customFormat="1" ht="40.5" hidden="1">
       <c r="A262" s="356">
         <v>260</v>
       </c>
@@ -19137,9 +19160,13 @@
       <c r="H262" s="368" t="s">
         <v>269</v>
       </c>
-      <c r="L262" s="430"/>
+      <c r="L262" s="380" t="s">
+        <v>725</v>
+      </c>
       <c r="M262" s="430"/>
-      <c r="N262" s="430"/>
+      <c r="N262" s="430" t="s">
+        <v>728</v>
+      </c>
       <c r="O262" s="430"/>
       <c r="P262" s="430" t="s">
         <v>442</v>
@@ -19187,7 +19214,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="81">
+    <row r="264" spans="1:16" ht="81" hidden="1">
       <c r="A264" s="356">
         <v>262</v>
       </c>
@@ -19225,7 +19252,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="265" spans="1:16" s="303" customFormat="1" ht="67.5">
+    <row r="265" spans="1:16" s="303" customFormat="1" ht="67.5" hidden="1">
       <c r="A265" s="356">
         <v>263</v>
       </c>
@@ -19250,11 +19277,17 @@
       <c r="H265" s="368" t="s">
         <v>269</v>
       </c>
+      <c r="L265" s="380" t="s">
+        <v>729</v>
+      </c>
+      <c r="O265" s="420">
+        <v>42715</v>
+      </c>
       <c r="P265" s="380" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="54">
+    <row r="266" spans="1:16" ht="54" hidden="1">
       <c r="A266" s="356">
         <v>264</v>
       </c>
@@ -19289,7 +19322,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="267" spans="1:16" s="380" customFormat="1" ht="54">
+    <row r="267" spans="1:16" s="380" customFormat="1" ht="54" hidden="1">
       <c r="A267" s="356">
         <v>265</v>
       </c>
@@ -19324,7 +19357,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" hidden="1">
       <c r="A268" s="356">
         <v>266</v>
       </c>
@@ -19356,7 +19389,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="269" spans="1:16" s="380" customFormat="1" ht="40.5">
+    <row r="269" spans="1:16" s="380" customFormat="1" ht="40.5" hidden="1">
       <c r="A269" s="356">
         <v>267</v>
       </c>
@@ -19391,7 +19424,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="270" spans="1:16" s="380" customFormat="1" ht="40.5">
+    <row r="270" spans="1:16" s="380" customFormat="1" ht="40.5" hidden="1">
       <c r="A270" s="356">
         <v>268</v>
       </c>
@@ -19426,7 +19459,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="271" spans="1:16" s="380" customFormat="1" ht="27">
+    <row r="271" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
       <c r="A271" s="356">
         <v>269</v>
       </c>
@@ -19461,7 +19494,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="272" spans="1:16" s="380" customFormat="1" ht="40.5">
+    <row r="272" spans="1:16" s="380" customFormat="1" ht="40.5" hidden="1">
       <c r="A272" s="356">
         <v>270</v>
       </c>
@@ -19496,7 +19529,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="273" spans="1:16" s="380" customFormat="1" ht="27">
+    <row r="273" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
       <c r="A273" s="356">
         <v>271</v>
       </c>
@@ -19528,7 +19561,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="274" spans="1:16" s="380" customFormat="1" ht="27">
+    <row r="274" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
       <c r="A274" s="356">
         <v>272</v>
       </c>
@@ -19550,11 +19583,17 @@
       <c r="G274" s="363" t="s">
         <v>689</v>
       </c>
+      <c r="L274" s="380" t="s">
+        <v>725</v>
+      </c>
+      <c r="N274" s="380" t="s">
+        <v>727</v>
+      </c>
       <c r="P274" s="380" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="275" spans="1:16" s="380" customFormat="1" ht="27">
+    <row r="275" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
       <c r="A275" s="356">
         <v>273</v>
       </c>
@@ -19592,7 +19631,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="276" spans="1:16" s="380" customFormat="1" ht="27">
+    <row r="276" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
       <c r="A276" s="356">
         <v>274</v>
       </c>
@@ -19630,7 +19669,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="277" spans="1:16" s="380" customFormat="1" ht="27">
+    <row r="277" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
       <c r="A277" s="356">
         <v>275</v>
       </c>
@@ -19655,11 +19694,17 @@
       <c r="H277" s="380" t="s">
         <v>693</v>
       </c>
+      <c r="L277" s="380" t="s">
+        <v>701</v>
+      </c>
+      <c r="O277" s="420">
+        <v>42715</v>
+      </c>
       <c r="P277" s="380" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="278" spans="1:16" s="380" customFormat="1" ht="54">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" s="380" customFormat="1" ht="54" hidden="1">
       <c r="A278" s="356">
         <v>276</v>
       </c>
@@ -19697,7 +19742,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="279" spans="1:16" s="380" customFormat="1" ht="27">
+    <row r="279" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
       <c r="A279" s="356">
         <v>277</v>
       </c>
@@ -19722,14 +19767,20 @@
       <c r="H279" s="380" t="s">
         <v>106</v>
       </c>
+      <c r="L279" s="380" t="s">
+        <v>725</v>
+      </c>
+      <c r="N279" s="380" t="s">
+        <v>726</v>
+      </c>
       <c r="O279" s="420">
         <v>42715</v>
       </c>
       <c r="P279" s="380" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="280" spans="1:16" s="380" customFormat="1" ht="27">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
       <c r="A280" s="356">
         <v>278</v>
       </c>
@@ -19754,6 +19805,12 @@
       <c r="H280" s="380" t="s">
         <v>106</v>
       </c>
+      <c r="L280" s="380" t="s">
+        <v>725</v>
+      </c>
+      <c r="N280" s="380" t="s">
+        <v>726</v>
+      </c>
       <c r="O280" s="420">
         <v>42715</v>
       </c>
@@ -19761,7 +19818,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="281" spans="1:16" s="380" customFormat="1" ht="27">
+    <row r="281" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
       <c r="A281" s="356">
         <v>279</v>
       </c>
@@ -19797,11 +19854,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Y278">
+  <autoFilter ref="A2:Y281">
     <filterColumn colId="8">
       <filters blank="1"/>
     </filterColumn>
-    <filterColumn colId="11"/>
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/测试单-电子书_txt-word_161210.xlsx
+++ b/测试单-电子书_txt-word_161210.xlsx
@@ -8487,7 +8487,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N251" sqref="N251"/>
+      <selection pane="bottomRight" activeCell="L256" sqref="L252:L256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19768,7 +19768,7 @@
         <v>106</v>
       </c>
       <c r="L279" s="380" t="s">
-        <v>725</v>
+        <v>701</v>
       </c>
       <c r="N279" s="380" t="s">
         <v>726</v>
@@ -19806,7 +19806,7 @@
         <v>106</v>
       </c>
       <c r="L280" s="380" t="s">
-        <v>725</v>
+        <v>701</v>
       </c>
       <c r="N280" s="380" t="s">
         <v>726</v>

--- a/测试单-电子书_txt-word_161210.xlsx
+++ b/测试单-电子书_txt-word_161210.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="731">
   <si>
     <t>编号</t>
   </si>
@@ -5180,6 +5180,10 @@
   </si>
   <si>
     <t>先观察一下有没有复现的规律。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -8487,7 +8491,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L256" sqref="L252:L256"/>
+      <selection pane="bottomRight" activeCell="O249" sqref="O249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18567,7 +18571,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="40.5" hidden="1">
+    <row r="248" spans="1:16" ht="40.5">
       <c r="A248" s="356">
         <v>246</v>
       </c>
@@ -18629,10 +18633,14 @@
       <c r="H249" s="309" t="s">
         <v>269</v>
       </c>
-      <c r="L249" s="430"/>
+      <c r="L249" s="430" t="s">
+        <v>730</v>
+      </c>
       <c r="M249" s="430"/>
       <c r="N249" s="430"/>
-      <c r="O249" s="430"/>
+      <c r="O249" s="420">
+        <v>42715</v>
+      </c>
       <c r="P249" s="430" t="s">
         <v>442</v>
       </c>
@@ -18676,7 +18684,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="251" spans="1:16" s="361" customFormat="1" ht="67.5" hidden="1">
+    <row r="251" spans="1:16" s="361" customFormat="1" ht="67.5">
       <c r="A251" s="356">
         <v>249</v>
       </c>
@@ -18713,7 +18721,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="252" spans="1:16" s="361" customFormat="1" ht="108" hidden="1">
+    <row r="252" spans="1:16" s="361" customFormat="1" ht="108">
       <c r="A252" s="356">
         <v>250</v>
       </c>
@@ -18882,7 +18890,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="361" customFormat="1" ht="54" hidden="1">
+    <row r="256" spans="1:16" s="361" customFormat="1" ht="54">
       <c r="A256" s="356">
         <v>254</v>
       </c>
@@ -19135,7 +19143,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="262" spans="1:16" s="361" customFormat="1" ht="40.5" hidden="1">
+    <row r="262" spans="1:16" s="361" customFormat="1" ht="40.5">
       <c r="A262" s="356">
         <v>260</v>
       </c>
@@ -19214,7 +19222,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="81" hidden="1">
+    <row r="264" spans="1:16" ht="81">
       <c r="A264" s="356">
         <v>262</v>
       </c>
@@ -19252,7 +19260,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="265" spans="1:16" s="303" customFormat="1" ht="67.5" hidden="1">
+    <row r="265" spans="1:16" s="303" customFormat="1" ht="67.5">
       <c r="A265" s="356">
         <v>263</v>
       </c>
@@ -19287,7 +19295,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="54" hidden="1">
+    <row r="266" spans="1:16" ht="54">
       <c r="A266" s="356">
         <v>264</v>
       </c>
@@ -19322,7 +19330,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="267" spans="1:16" s="380" customFormat="1" ht="54" hidden="1">
+    <row r="267" spans="1:16" s="380" customFormat="1" ht="54">
       <c r="A267" s="356">
         <v>265</v>
       </c>
@@ -19357,7 +19365,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="268" spans="1:16" hidden="1">
+    <row r="268" spans="1:16">
       <c r="A268" s="356">
         <v>266</v>
       </c>
@@ -19389,7 +19397,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="269" spans="1:16" s="380" customFormat="1" ht="40.5" hidden="1">
+    <row r="269" spans="1:16" s="380" customFormat="1" ht="40.5">
       <c r="A269" s="356">
         <v>267</v>
       </c>
@@ -19424,7 +19432,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="270" spans="1:16" s="380" customFormat="1" ht="40.5" hidden="1">
+    <row r="270" spans="1:16" s="380" customFormat="1" ht="40.5">
       <c r="A270" s="356">
         <v>268</v>
       </c>
@@ -19459,7 +19467,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="271" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+    <row r="271" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A271" s="356">
         <v>269</v>
       </c>
@@ -19494,7 +19502,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="272" spans="1:16" s="380" customFormat="1" ht="40.5" hidden="1">
+    <row r="272" spans="1:16" s="380" customFormat="1" ht="40.5">
       <c r="A272" s="356">
         <v>270</v>
       </c>
@@ -19529,7 +19537,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="273" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+    <row r="273" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A273" s="356">
         <v>271</v>
       </c>
@@ -19561,7 +19569,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="274" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+    <row r="274" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A274" s="356">
         <v>272</v>
       </c>
@@ -19593,7 +19601,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="275" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+    <row r="275" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A275" s="356">
         <v>273</v>
       </c>
@@ -19631,7 +19639,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="276" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+    <row r="276" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A276" s="356">
         <v>274</v>
       </c>
@@ -19669,7 +19677,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="277" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+    <row r="277" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A277" s="356">
         <v>275</v>
       </c>
@@ -19704,7 +19712,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="278" spans="1:16" s="380" customFormat="1" ht="54" hidden="1">
+    <row r="278" spans="1:16" s="380" customFormat="1" ht="54">
       <c r="A278" s="356">
         <v>276</v>
       </c>
@@ -19742,7 +19750,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="279" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+    <row r="279" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A279" s="356">
         <v>277</v>
       </c>
@@ -19780,7 +19788,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="280" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+    <row r="280" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A280" s="356">
         <v>278</v>
       </c>
@@ -19818,7 +19826,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="281" spans="1:16" s="380" customFormat="1" ht="27" hidden="1">
+    <row r="281" spans="1:16" s="380" customFormat="1" ht="27">
       <c r="A281" s="356">
         <v>279</v>
       </c>
@@ -19858,9 +19866,7 @@
     <filterColumn colId="8">
       <filters blank="1"/>
     </filterColumn>
-    <filterColumn colId="11">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="11"/>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
